--- a/vedois/alunos (importar)/CCO_7.xlsx
+++ b/vedois/alunos (importar)/CCO_7.xlsx
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CCO 0 7</t>
+          <t>CCO 7</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
+          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
+          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
+          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
         </is>
       </c>
     </row>
@@ -492,170 +492,170 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
+          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Segunda N 19:00 - 19:50</t>
+          <t>Segunda M 11:00 - 11:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
+          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Segunda N 19:50 - 20:40</t>
+          <t>Terça M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
+          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Segunda N 21:00 - 21:50</t>
+          <t>Terça M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
+          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Segunda N 21:50 - 22:40</t>
+          <t>Terça M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
+          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Segunda T 13:30 - 14:25</t>
+          <t>Terça M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
+          <t>CIC271 Processamento Digital de Imagens 4 Prof 7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Segunda T 14:25 - 15:20</t>
+          <t>Quarta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
+          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Segunda T 15:45 - 16:40</t>
+          <t>Quarta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
+          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Segunda T 16:40 - 17:35</t>
+          <t>Quarta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
+          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terça M 07:00 - 07:55</t>
+          <t>Quarta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
+          <t>COM212 Gerência de Projeto de Software 4 Prof 1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terça M 07:55 - 08:50</t>
+          <t>Quinta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
+          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terça M 08:50 - 09:45</t>
+          <t>Quinta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
+          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terça M 10:10 - 11:00</t>
+          <t>Quinta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
+          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Segunda M 11:00 - 11:55</t>
+          <t>Quinta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>COM222 Desenvolvimento de Sistemas na Web 5 Prof 15</t>
+          <t>COM213 Interação Humano-Computador 4 Prof 6</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terça T 13:30 - 14:25</t>
+          <t>Sexta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -667,7 +667,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terça T 14:25 - 15:20</t>
+          <t>Sexta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terça T 15:45 - 16:40</t>
+          <t>Sexta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terça T 16:40 - 17:35</t>
+          <t>Sexta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
